--- a/resources/experiment 1/metrics/MAPE/incidence/Microalbuminuria (INC).xlsx
+++ b/resources/experiment 1/metrics/MAPE/incidence/Microalbuminuria (INC).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.1648427881573504</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.1648427881573505</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.1648427881573504</v>
-      </c>
       <c r="D2" t="n">
-        <v>0.1648427881573504</v>
+        <v>0.1648427881573505</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01948785135422229</v>
+        <v>0.02038747101948647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01962806579204745</v>
+        <v>0.01946207311681203</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01962806579204745</v>
+        <v>0.02909823647195141</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01316548984042925</v>
+        <v>0.02069419616321433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01316548984042925</v>
+        <v>0.01966504434608745</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01316548984042925</v>
+        <v>0.02616359202661788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0319141275297001</v>
+        <v>0.01354194484727054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0319141275297001</v>
+        <v>0.01539276010069016</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0319141275297001</v>
+        <v>0.01487894132134213</v>
       </c>
     </row>
   </sheetData>
